--- a/tests/graphs.xlsx
+++ b/tests/graphs.xlsx
@@ -67,11 +67,12 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -87,6 +88,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -281,6 +287,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -339,11 +346,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11268409"/>
-        <c:axId val="80181736"/>
+        <c:axId val="35275049"/>
+        <c:axId val="12673425"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11268409"/>
+        <c:axId val="35275049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -377,7 +384,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -399,12 +406,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80181736"/>
+        <c:crossAx val="12673425"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80181736"/>
+        <c:axId val="12673425"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +454,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -469,7 +476,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11268409"/>
+        <c:crossAx val="35275049"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -510,7 +517,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -573,6 +580,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -631,17 +639,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26329012"/>
-        <c:axId val="84115109"/>
+        <c:axId val="57117647"/>
+        <c:axId val="61303342"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26329012"/>
+        <c:axId val="57117647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -663,12 +671,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84115109"/>
+        <c:crossAx val="61303342"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84115109"/>
+        <c:axId val="61303342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +691,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -705,7 +713,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26329012"/>
+        <c:crossAx val="57117647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -746,7 +754,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -809,6 +817,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -848,19 +857,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0440644</c:v>
+                  <c:v>0.470698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26294</c:v>
+                  <c:v>2.38529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.595393</c:v>
+                  <c:v>4.80652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.99761</c:v>
+                  <c:v>24.4069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.44562</c:v>
+                  <c:v>49.8927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -913,6 +922,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -971,17 +981,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87225875"/>
-        <c:axId val="99471458"/>
+        <c:axId val="69705549"/>
+        <c:axId val="74922768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87225875"/>
+        <c:axId val="69705549"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1003,12 +1013,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99471458"/>
+        <c:crossAx val="74922768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99471458"/>
+        <c:axId val="74922768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1033,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1045,7 +1055,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87225875"/>
+        <c:crossAx val="69705549"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1086,7 +1096,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -1149,6 +1159,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1188,19 +1199,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0190383</c:v>
+                  <c:v>0.232851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.117117</c:v>
+                  <c:v>1.19664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.270407</c:v>
+                  <c:v>2.36642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.80719</c:v>
+                  <c:v>11.9493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.11252</c:v>
+                  <c:v>24.1374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,6 +1264,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1311,17 +1323,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="85356678"/>
-        <c:axId val="63794820"/>
+        <c:axId val="52122092"/>
+        <c:axId val="6068173"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85356678"/>
+        <c:axId val="52122092"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1343,12 +1355,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63794820"/>
+        <c:crossAx val="6068173"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63794820"/>
+        <c:axId val="6068173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1375,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1385,7 +1397,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85356678"/>
+        <c:crossAx val="52122092"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1426,7 +1438,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -1444,9 +1456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>11160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1454,8 +1466,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5608080" y="153000"/>
-        <a:ext cx="7213680" cy="3834360"/>
+        <a:off x="5615280" y="153000"/>
+        <a:ext cx="7224480" cy="3834000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1474,9 +1486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>467640</xdr:colOff>
+      <xdr:colOff>467280</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1484,8 +1496,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5895720" y="4064040"/>
-        <a:ext cx="5756760" cy="3241440"/>
+        <a:off x="5902920" y="4064040"/>
+        <a:ext cx="5765040" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1504,9 +1516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>128160</xdr:colOff>
+      <xdr:colOff>127800</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1514,8 +1526,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12871440" y="181800"/>
-        <a:ext cx="5756760" cy="3365640"/>
+        <a:off x="12889800" y="181800"/>
+        <a:ext cx="5765040" cy="3365280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1534,9 +1546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>525240</xdr:colOff>
+      <xdr:colOff>524880</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1544,8 +1556,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11642760" y="4188240"/>
-        <a:ext cx="5756760" cy="3241800"/>
+        <a:off x="11658600" y="4188240"/>
+        <a:ext cx="5765400" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1566,12 +1578,12 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,7 +1892,7 @@
         <v>10000</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.0440644</v>
+        <v>0.470698</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,7 +1906,7 @@
         <v>50000</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.26294</v>
+        <v>2.38529</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,7 +1920,7 @@
         <v>100000</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.595393</v>
+        <v>4.80652</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,7 +1934,7 @@
         <v>500000</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>3.99761</v>
+        <v>24.4069</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,7 +1948,7 @@
         <v>1000000</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>9.44562</v>
+        <v>49.8927</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,7 +2032,7 @@
         <v>10000</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.0190383</v>
+        <v>0.232851</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +2046,7 @@
         <v>50000</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.117117</v>
+        <v>1.19664</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2048,7 +2060,7 @@
         <v>100000</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.270407</v>
+        <v>2.36642</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,7 +2074,7 @@
         <v>500000</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1.80719</v>
+        <v>11.9493</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,7 +2088,7 @@
         <v>1000000</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>4.11252</v>
+        <v>24.1374</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
